--- a/data/trans_bre/P1805-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Provincia-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1805-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -586,17 +625,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98,77%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>125,04%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 7,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,17</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 375,02</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-38,08; 793,43</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>187,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 1,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 2,99</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-49,16; 138,58</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>173,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>84,12%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 6,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 5,15</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 1026,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 286,28</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 3,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 2,44</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-46,11; 282,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-56,77; 58,14</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-43,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>100,75%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 1,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 2,33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-89,35; 143,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-73,01; —</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>242,72%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26,94%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 5,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 2,95</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-31,47; 1386,99</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,01; 172,22</t>
         </is>
       </c>
     </row>
@@ -951,12 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>244,8%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1278,32 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 4,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 4,33</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,53; 837,51</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-38,23; 126,51</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1330,32 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>101,37%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1378,32 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 4,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 1,69</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 273,75</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-41,72; 96,12</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1430,32 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>105,35%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1478,32 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 2,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 1,77</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>54,0; 184,07</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 61,48</t>
         </is>
       </c>
     </row>
@@ -1118,15 +1517,15 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/P1805-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>125,04%</t>
+          <t>125,31%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,17</t>
+          <t>-0,57; 3,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 793,43</t>
+          <t>-40,92; 804,96</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,99</t>
+          <t>-2,89; 2,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 138,58</t>
+          <t>-50,12; 134,83</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>83,3%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,15</t>
+          <t>-0,4; 5,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 286,28</t>
+          <t>-14,87; 281,8</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>-30,38%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 2,44</t>
+          <t>-6,52; 1,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,77; 58,14</t>
+          <t>-68,88; 35,76</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100,75%</t>
+          <t>103,09%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,33</t>
+          <t>-0,84; 2,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-73,01; —</t>
+          <t>-72,9; —</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>28,38%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,95</t>
+          <t>-1,83; 2,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 172,22</t>
+          <t>-48,81; 179,97</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>5,95%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,33</t>
+          <t>-4,19; 3,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 126,51</t>
+          <t>-59,17; 91,97</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>39,01%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,69</t>
+          <t>-0,71; 2,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 96,12</t>
+          <t>-26,49; 251,3</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,77</t>
+          <t>-0,46; 1,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 61,48</t>
+          <t>-11,64; 69,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1805-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,84</t>
+          <t>-0,33; 7,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,14</t>
+          <t>-0,76; 3,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,19 +698,19 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 375,02</t>
+          <t>-13,29; 375,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 804,96</t>
+          <t>-42,62; 925,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,92</t>
+          <t>-0,22; 1,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,86</t>
+          <t>-3,09; 2,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,82; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 134,83</t>
+          <t>-50,83; 117,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,14</t>
+          <t>0,43; 6,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,14</t>
+          <t>-0,55; 5,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1026,31</t>
+          <t>-1,69; 792,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 281,8</t>
+          <t>-20,08; 311,35</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,4</t>
+          <t>-1,78; 3,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 1,44</t>
+          <t>-6,25; 1,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 282,85</t>
+          <t>-55,1; 208,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,88; 35,76</t>
+          <t>-66,18; 40,48</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,22</t>
+          <t>-4,54; 1,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,31</t>
+          <t>-0,84; 2,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,19 +1098,19 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-89,35; 143,3</t>
+          <t>-87,77; 165,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-72,9; —</t>
+          <t>-74,18; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,72</t>
+          <t>0,36; 5,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,95</t>
+          <t>-1,61; 2,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 1386,99</t>
+          <t>-19,13; 1338,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 179,97</t>
+          <t>-43,2; 189,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,39</t>
+          <t>0,89; 4,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 3,52</t>
+          <t>-4,52; 3,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,53; 837,51</t>
+          <t>27,67; 897,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 91,97</t>
+          <t>-58,79; 85,38</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,33</t>
+          <t>0,5; 4,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,4</t>
+          <t>-0,81; 2,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,75; 273,75</t>
+          <t>15,35; 281,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 251,3</t>
+          <t>-30,95; 268,53</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,74</t>
+          <t>1,13; 2,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,78</t>
+          <t>-0,34; 1,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>54,0; 184,07</t>
+          <t>55,93; 190,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 69,52</t>
+          <t>-8,02; 71,06</t>
         </is>
       </c>
     </row>
